--- a/config/sorting_consignee.xlsx
+++ b/config/sorting_consignee.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py_workspace\AutomationTest\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD791775-BEFB-4531-8F5B-BBBC1647C420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB7547E-5C88-4474-A9BD-EEC8CE89D02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="sorting_consignee" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="134">
   <si>
     <t>vendorCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,120 +206,349 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>UBIAUEPAR</t>
+  </si>
+  <si>
+    <t>UBIESSEMI</t>
+  </si>
+  <si>
+    <t>UBINZSEMI</t>
+  </si>
+  <si>
+    <t>UBIFRSEMI</t>
+  </si>
+  <si>
+    <t>UBIEUSEMI</t>
+  </si>
+  <si>
+    <t>FR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cinématuqYY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>letter</t>
+  </si>
+  <si>
+    <t>product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>South Australia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palmyra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greymouth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rocroi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>France</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UBIAUSEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UBI相关面单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UBI相关面单，建包要求2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UBI相关面单-比邮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consigneePhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UBINZTRACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UBICASEMI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UBIFRTRACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UBICAEXPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UBIAULETTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewYork</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brooklyn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obere Kr?blitzer Str. 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00606</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONCONSTANDARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArmedForcesPacific</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lancaster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27 Sawgrass Lane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IB-P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IB-PS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IB-PSL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PuertoRico</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00610</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IB 美国-PSL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IB 美国-PS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IB 美国-P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IB-F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xMan 43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国UPS-EMI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JTMYSTD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JTSGSTD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>018958</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马来西亚-极兔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新加坡-极兔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xMan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UP-JFK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UP-LAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NG-JFK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UP-ORD-暂不支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NG-LAX-暂不支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NGS 美国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国UPS-ORD，由于涉及侵权暂不支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准-美国国际小包-MI-NGS产品配置问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOHOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BATU PAHAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53398</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MXPACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNE-墨西哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PKW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DHL相关面单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>UBIESTRACK</t>
-  </si>
-  <si>
-    <t>UBIAUEPAR</t>
-  </si>
-  <si>
-    <t>UBIESSEMI</t>
-  </si>
-  <si>
-    <t>UBINZSEMI</t>
-  </si>
-  <si>
-    <t>UBIFRSEMI</t>
-  </si>
-  <si>
-    <t>UBIEUSEMI</t>
-  </si>
-  <si>
-    <t>FR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cinématuqYY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pennsylvania</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>letter</t>
-  </si>
-  <si>
-    <t>product</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>South Australia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Palmyra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Greymouth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rocroi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>France</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UBIAUSEA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UBI相关面单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UBI相关面单，建包要求2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UBI相关面单-比邮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>consigneePhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UBINZTRACK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UBICASEMI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UBIFRTRACK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UBICAEXPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UBIAULETTER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MXP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNE-意大利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -385,6 +615,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -665,18 +898,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S6" sqref="S6:S17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" style="1" bestFit="1" customWidth="1"/>
@@ -705,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -726,7 +959,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>6</v>
@@ -756,10 +989,10 @@
         <v>35</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>32</v>
@@ -773,7 +1006,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -841,7 +1074,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -909,7 +1142,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -977,7 +1210,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -1045,7 +1278,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -1113,7 +1346,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -1181,7 +1414,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -1249,7 +1482,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -1317,7 +1550,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
@@ -1385,7 +1618,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -1453,7 +1686,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -1521,7 +1754,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
@@ -1589,7 +1822,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
@@ -1657,7 +1890,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
@@ -1725,7 +1958,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
@@ -1793,7 +2026,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
@@ -1858,10 +2091,10 @@
         <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1">
         <v>4</v>
@@ -1876,10 +2109,10 @@
         <v>39</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="J18" s="1">
         <v>100111111</v>
@@ -1918,7 +2151,7 @@
         <v>1</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
@@ -1926,10 +2159,10 @@
         <v>43</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="1">
         <v>4</v>
@@ -1938,16 +2171,16 @@
         <v>332</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J19" s="1">
         <v>100111111</v>
@@ -1986,7 +2219,7 @@
         <v>1</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
@@ -1994,10 +2227,10 @@
         <v>43</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="1">
         <v>4</v>
@@ -2006,13 +2239,13 @@
         <v>336</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>30</v>
@@ -2054,7 +2287,7 @@
         <v>1</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
@@ -2062,10 +2295,10 @@
         <v>43</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1">
         <v>4</v>
@@ -2074,7 +2307,7 @@
         <v>97</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>39</v>
@@ -2083,7 +2316,7 @@
         <v>29</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J21" s="1">
         <v>100111111</v>
@@ -2122,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
@@ -2130,10 +2363,10 @@
         <v>43</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" s="1">
         <v>4</v>
@@ -2142,16 +2375,16 @@
         <v>21</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="J22" s="1">
         <v>100111111</v>
@@ -2190,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
@@ -2198,10 +2431,10 @@
         <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" s="1">
         <v>4</v>
@@ -2210,13 +2443,13 @@
         <v>342</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>30</v>
@@ -2258,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
@@ -2266,10 +2499,10 @@
         <v>43</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D24" s="1">
         <v>4</v>
@@ -2278,16 +2511,16 @@
         <v>453</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="J24" s="1">
         <v>100111111</v>
@@ -2326,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
@@ -2334,10 +2567,10 @@
         <v>43</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" s="1">
         <v>4</v>
@@ -2346,7 +2579,7 @@
         <v>98</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>39</v>
@@ -2355,7 +2588,7 @@
         <v>29</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J25" s="1">
         <v>100111111</v>
@@ -2394,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
@@ -2402,10 +2635,10 @@
         <v>43</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" s="1">
         <v>4</v>
@@ -2420,10 +2653,10 @@
         <v>39</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="J26" s="1">
         <v>100111111</v>
@@ -2462,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
@@ -2470,10 +2703,10 @@
         <v>43</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27" s="1">
         <v>4</v>
@@ -2482,16 +2715,16 @@
         <v>341</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J27" s="1">
         <v>100111111</v>
@@ -2530,7 +2763,7 @@
         <v>1</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
@@ -2538,10 +2771,10 @@
         <v>43</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28" s="1">
         <v>4</v>
@@ -2598,7 +2831,7 @@
         <v>1</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
@@ -2606,10 +2839,10 @@
         <v>43</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" s="1">
         <v>4</v>
@@ -2618,7 +2851,7 @@
         <v>79</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>39</v>
@@ -2666,7 +2899,7 @@
         <v>1</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
@@ -2674,10 +2907,10 @@
         <v>43</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30" s="1">
         <v>4</v>
@@ -2686,16 +2919,16 @@
         <v>454</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="J30" s="1">
         <v>100111111</v>
@@ -2734,7 +2967,959 @@
         <v>1</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>29</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1001111</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N31" s="1">
+        <v>10</v>
+      </c>
+      <c r="O31" s="1">
+        <v>10</v>
+      </c>
+      <c r="P31" s="1">
+        <v>800</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0</v>
+      </c>
+      <c r="U31" s="1">
+        <v>1</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>29</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J32" s="1">
+        <v>11231234566</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="1">
+        <v>10</v>
+      </c>
+      <c r="O32" s="1">
+        <v>10</v>
+      </c>
+      <c r="P32" s="1">
+        <v>300</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1">
+        <v>0</v>
+      </c>
+      <c r="U32" s="1">
+        <v>1</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>42</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1001111</v>
+      </c>
+      <c r="K33" s="4">
+        <v>96208</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N33" s="1">
+        <v>10</v>
+      </c>
+      <c r="O33" s="1">
+        <v>10</v>
+      </c>
+      <c r="P33" s="1">
+        <v>800</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0</v>
+      </c>
+      <c r="U33" s="1">
+        <v>1</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>42</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J34" s="1">
+        <v>11231234566</v>
+      </c>
+      <c r="K34" s="4">
+        <v>96208</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N34" s="1">
+        <v>10</v>
+      </c>
+      <c r="O34" s="1">
+        <v>10</v>
+      </c>
+      <c r="P34" s="1">
+        <v>300</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0</v>
+      </c>
+      <c r="U34" s="1">
+        <v>1</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>3</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K35" s="4">
+        <v>96700</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N35" s="1">
+        <v>10</v>
+      </c>
+      <c r="O35" s="1">
+        <v>10</v>
+      </c>
+      <c r="P35" s="1">
+        <v>300</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0</v>
+      </c>
+      <c r="U35" s="1">
+        <v>1</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>24</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J36" s="1">
+        <v>11231234566</v>
+      </c>
+      <c r="K36" s="4">
+        <v>38001</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N36" s="1">
+        <v>10</v>
+      </c>
+      <c r="O36" s="1">
+        <v>10</v>
+      </c>
+      <c r="P36" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0</v>
+      </c>
+      <c r="U36" s="1">
+        <v>1</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>45</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J37" s="1">
+        <v>11231234566</v>
+      </c>
+      <c r="K37" s="4">
+        <v>99352</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N37" s="1">
+        <v>10</v>
+      </c>
+      <c r="O37" s="1">
+        <v>10</v>
+      </c>
+      <c r="P37" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0</v>
+      </c>
+      <c r="U37" s="1">
+        <v>1</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1">
+        <v>40</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J38" s="1">
+        <v>11231234566</v>
+      </c>
+      <c r="K38" s="4">
+        <v>73335</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N38" s="1">
+        <v>10</v>
+      </c>
+      <c r="O38" s="1">
+        <v>10</v>
+      </c>
+      <c r="P38" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0</v>
+      </c>
+      <c r="U38" s="1">
+        <v>1</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>4</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J39" s="1">
+        <v>11231234566</v>
+      </c>
+      <c r="K39" s="4">
+        <v>93301</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N39" s="1">
+        <v>10</v>
+      </c>
+      <c r="O39" s="1">
+        <v>10</v>
+      </c>
+      <c r="P39" s="1">
+        <v>300</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1">
+        <v>0</v>
+      </c>
+      <c r="U39" s="1">
+        <v>1</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="1">
+        <v>5</v>
+      </c>
+      <c r="E40" s="1">
+        <v>252</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J40" s="1">
+        <v>11231234566</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N40" s="1">
+        <v>10</v>
+      </c>
+      <c r="O40" s="1">
+        <v>10</v>
+      </c>
+      <c r="P40" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="S40" s="1">
+        <v>0</v>
+      </c>
+      <c r="T40" s="1">
+        <v>0</v>
+      </c>
+      <c r="U40" s="1">
+        <v>1</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="1">
+        <v>5</v>
+      </c>
+      <c r="E41" s="1">
+        <v>251</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J41" s="1">
+        <v>11231234566</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N41" s="1">
+        <v>10</v>
+      </c>
+      <c r="O41" s="1">
+        <v>10</v>
+      </c>
+      <c r="P41" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="S41" s="1">
+        <v>0</v>
+      </c>
+      <c r="T41" s="1">
+        <v>0</v>
+      </c>
+      <c r="U41" s="1">
+        <v>1</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="1">
+        <v>5</v>
+      </c>
+      <c r="E42" s="1">
+        <v>251</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1123123456</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N42" s="1">
+        <v>10</v>
+      </c>
+      <c r="O42" s="1">
+        <v>10</v>
+      </c>
+      <c r="P42" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="S42" s="1">
+        <v>0</v>
+      </c>
+      <c r="T42" s="1">
+        <v>0</v>
+      </c>
+      <c r="U42" s="1">
+        <v>1</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="1">
+        <v>5</v>
+      </c>
+      <c r="E43" s="1">
+        <v>68</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1123123456</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N43" s="1">
+        <v>10</v>
+      </c>
+      <c r="O43" s="1">
+        <v>10</v>
+      </c>
+      <c r="P43" s="1">
+        <v>3000</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0</v>
+      </c>
+      <c r="T43" s="1">
+        <v>0</v>
+      </c>
+      <c r="U43" s="1">
+        <v>1</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="1">
+        <v>4</v>
+      </c>
+      <c r="E44" s="1">
+        <v>341</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J44" s="1">
+        <v>100111111</v>
+      </c>
+      <c r="K44" s="1">
+        <v>95880</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N44" s="1">
+        <v>10</v>
+      </c>
+      <c r="O44" s="1">
+        <v>10</v>
+      </c>
+      <c r="P44" s="1">
+        <v>800</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S44" s="1">
+        <v>0</v>
+      </c>
+      <c r="T44" s="1">
+        <v>0</v>
+      </c>
+      <c r="U44" s="1">
+        <v>1</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
